--- a/public/assets/Template/Product.xlsx
+++ b/public/assets/Template/Product.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MR AMARTEY\Desktop\wckd\proCare\ProCare-Web\public\assets\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFDA9FD-325F-448B-8A3A-1D351C9C0989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D76E813-6329-47AD-8F42-AB9721B35DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EC7DA507-1A9D-4584-B985-8BF7B15756D7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{EC7DA507-1A9D-4584-B985-8BF7B15756D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,13 @@
     <t>Selling Price</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Strength</t>
+  </si>
+  <si>
+    <t>Unit</t>
   </si>
 </sst>
 </file>
@@ -394,7 +394,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,9 +402,8 @@
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="4" width="20.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -412,16 +411,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
